--- a/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
+++ b/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
@@ -5,12 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="nota" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="1-codigos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="1-recu+" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="2-alg.de boole" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="3-compue" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="5-salidas" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="5-RecuP" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="positivos" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="248">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -240,6 +246,27 @@
     <t xml:space="preserve">Recup</t>
   </si>
   <si>
+    <t xml:space="preserve">2-alg boole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-compuertas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-salidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
@@ -249,9 +276,6 @@
     <t xml:space="preserve">Calificación/10,00</t>
   </si>
   <si>
-    <t xml:space="preserve">promedio</t>
-  </si>
-  <si>
     <t xml:space="preserve">segundo</t>
   </si>
   <si>
@@ -376,14 +400,388 @@
   </si>
   <si>
     <t xml:space="preserve">3 días 17 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/9,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 de abril de 2025  19:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  23:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  12:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  00:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 28 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 36 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  17:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  15:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 horas 1 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  12:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  13:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  23:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 45 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 28 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  23:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 54 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  23:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 minutos 33 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 días 1 hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  00:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  17:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  13:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  14:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 56 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  23:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 27 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  23:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos 56 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 de abril de 2025  13:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de abril de 2025  00:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de abril de 2025  18:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  19:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de abril de 2025  18:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 26 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 39 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de abril de 2025  17:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de abril de 2025  22:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 de abril de 2025  09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 de mayo de 2025  17:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 días 19 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de abril de 2025  19:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de abril de 2025  18:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 de mayo de 2025  22:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 de mayo de 2025  17:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 29 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  23:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  21:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 31 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  23:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  23:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  21:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  23:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 54 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 de mayo de 2025  22:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  18:32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -409,12 +807,24 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFEB3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB3B"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -451,12 +861,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,23 +895,83 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFEB3B"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -496,11 +982,11 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -845,13 +1331,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -870,6 +1356,30 @@
       <c r="D1" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -880,6 +1390,33 @@
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>45783</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">G2+I2/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C2,E2,F2,J2),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,6 +1429,30 @@
       <c r="C3" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">G3+I3/2</f>
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C3,E3,F3,J3),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="str">
+        <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -903,6 +1464,33 @@
       <c r="C4" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>45782</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">G4+I4/2</f>
+        <v>10.5</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C4,E4,F4,J4),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -914,6 +1502,30 @@
       <c r="C5" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">G5+I5/2</f>
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C5,E5,F5,J5),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -922,8 +1534,35 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
+      <c r="C6" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>45764</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">G6+I6/2</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C6,E6,F6,J6),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,6 +1575,33 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>45784</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">G7+I7/2</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C7,E7,F7,J7),0)</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="str">
+        <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -947,6 +1613,30 @@
       <c r="C8" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">G8+I8/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C8,E8,F8,J8),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -958,6 +1648,30 @@
       <c r="C9" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">G9+I9/2</f>
+        <v>12</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C9,E9,F9,J9),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="str">
+        <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -969,6 +1683,30 @@
       <c r="C10" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">G10+I10/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C10,E10,F10,J10),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -979,6 +1717,30 @@
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">G11+I11/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C11,E11,F11,J11),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,6 +1753,30 @@
       <c r="C12" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">G12+I12/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C12,E12,F12,J12),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1002,6 +1788,30 @@
       <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">G13+I13/2</f>
+        <v>7</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C13,E13,F13,J13),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1013,6 +1823,30 @@
       <c r="C14" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">G14+I14/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C14,E14,F14,J14),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1024,6 +1858,30 @@
       <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">G15+I15/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C15,E15,F15,J15),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L15" s="0" t="str">
+        <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1035,6 +1893,33 @@
       <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>45782</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">G16+I16/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C16,E16,F16,J16),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L16" s="0" t="str">
+        <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -1046,6 +1931,30 @@
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">G17+I17/2</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C17,E17,F17,J17),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="str">
+        <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -1057,6 +1966,33 @@
       <c r="C18" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>45784</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">G18+I18/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C18,E18,F18,J18),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L18" s="0" t="str">
+        <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1068,6 +2004,30 @@
       <c r="C19" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">G19+I19/2</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C19,E19,F19,J19),0)</f>
+        <v>7</v>
+      </c>
+      <c r="L19" s="0" t="str">
+        <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1079,6 +2039,30 @@
       <c r="C20" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">G20+I20/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C20,E20,F20,J20),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L20" s="0" t="str">
+        <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1090,6 +2074,33 @@
       <c r="C21" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>45845</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">G21+I21/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C21,E21,F21,J21),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L21" s="0" t="str">
+        <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1101,6 +2112,30 @@
       <c r="C22" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">G22+I22/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K22" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C22,E22,F22,J22),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L22" s="0" t="str">
+        <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -1112,8 +2147,42 @@
       <c r="C23" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">G23+I23/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C23,E23,F23,J23),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L23" s="0" t="str">
+        <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K2:K23">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L23">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1129,13 +2198,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -1147,22 +2216,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,10 +2245,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -1199,10 +2268,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -1222,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -1245,10 +2314,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -1296,10 +2365,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -1319,10 +2388,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -1344,10 +2413,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -1364,10 +2433,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -1401,10 +2470,10 @@
         <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -1424,10 +2493,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -1447,10 +2516,10 @@
         <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -1470,10 +2539,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -1493,10 +2562,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -1530,10 +2599,10 @@
         <v>53</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -1553,10 +2622,10 @@
         <v>56</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -1576,10 +2645,10 @@
         <v>59</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -1599,10 +2668,10 @@
         <v>62</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -1622,10 +2691,10 @@
         <v>65</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -1647,10 +2716,10 @@
         <v>65</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -1661,10 +2730,10 @@
         <v>65</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>7</v>
@@ -1681,10 +2750,10 @@
         <v>68</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -1713,4 +2782,2047 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.62"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">AVERAGE(F22:F26)</f>
+        <v>7.6</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">ROUND(MAX(H22,G22),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D10)</f>
+        <v>4.71428571428571</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">ROUND(MAX(F4,E4),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
+++ b/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="262">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lucila Yanel</t>
   </si>
   <si>
@@ -51,6 +54,12 @@
     <t xml:space="preserve">patorouge77@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lourdes Elizabeth</t>
   </si>
   <si>
@@ -78,6 +87,12 @@
     <t xml:space="preserve">aybarguillermo@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sathya</t>
   </si>
   <si>
@@ -114,6 +129,12 @@
     <t xml:space="preserve">mirkod2009@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olimpiadas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liam Yoel</t>
   </si>
   <si>
@@ -240,6 +261,15 @@
     <t xml:space="preserve">zarragaramiro01@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medio tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarde</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-codigo</t>
   </si>
   <si>
@@ -265,6 +295,18 @@
   </si>
   <si>
     <t xml:space="preserve">valoracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 seg -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 seg-2</t>
   </si>
   <si>
     <t xml:space="preserve">Finalizado</t>
@@ -778,10 +820,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -861,7 +904,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -870,15 +913,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -980,17 +1027,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,19 +1055,79 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0.520833333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,13 +1135,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,13 +1170,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>0.520833333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,13 +1208,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0.53125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,13 +1246,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.555555555555555</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0.548611111111111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,13 +1290,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,13 +1325,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,13 +1363,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,13 +1401,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,13 +1436,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,13 +1471,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
+      <c r="J12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,13 +1509,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,13 +1544,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,13 +1579,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,13 +1614,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,13 +1649,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,13 +1687,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,13 +1722,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,13 +1760,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,13 +1795,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,13 +1830,43 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>0.520833333333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,13 +1874,80 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E23,"P")</f>
+        <v>20</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G23,"P")</f>
+        <v>20</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H23,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">COUNTIF(J2:J23,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">COUNTIF(L2:L23,"P")</f>
+        <v>16</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">COUNTIF(M2:M23,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="false">COUNTIF(O2:O23,"P")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1331,16 +1966,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="9.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,42 +1987,54 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
@@ -1397,10 +2045,10 @@
       <c r="F2" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -1410,21 +2058,24 @@
         <f aca="false">G2+I2/2</f>
         <v>8.5</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,F2,J2),0)</f>
         <v>9</v>
       </c>
-      <c r="L2" s="0" t="str">
+      <c r="L2" s="5" t="str">
         <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>10</v>
@@ -1445,21 +2096,24 @@
         <f aca="false">G3+I3/2</f>
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,F3,J3),0)</f>
         <v>10</v>
       </c>
-      <c r="L3" s="0" t="str">
+      <c r="L3" s="5" t="str">
         <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -1470,10 +2124,10 @@
       <c r="F4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="n">
+      <c r="G4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -1483,21 +2137,24 @@
         <f aca="false">G4+I4/2</f>
         <v>10.5</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,F4,J4),0)</f>
         <v>9</v>
       </c>
-      <c r="L4" s="0" t="str">
+      <c r="L4" s="5" t="str">
         <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -1518,29 +2175,32 @@
         <f aca="false">G5+I5/2</f>
         <v>11</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,F5,J5),0)</f>
         <v>10</v>
       </c>
-      <c r="L5" s="0" t="str">
+      <c r="L5" s="5" t="str">
         <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O5" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>45764</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4" t="n">
         <v>9</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -1556,21 +2216,24 @@
         <f aca="false">G6+I6/2</f>
         <v>1</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,F6,J6),0)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="0" t="str">
+      <c r="L6" s="5" t="str">
         <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -1581,10 +2244,10 @@
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -1594,21 +2257,24 @@
         <f aca="false">G7+I7/2</f>
         <v>5</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,F7,J7),0)</f>
         <v>2</v>
       </c>
-      <c r="L7" s="0" t="str">
+      <c r="L7" s="5" t="str">
         <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10</v>
@@ -1629,21 +2295,24 @@
         <f aca="false">G8+I8/2</f>
         <v>11.5</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,F8,J8),0)</f>
         <v>10</v>
       </c>
-      <c r="L8" s="0" t="str">
+      <c r="L8" s="5" t="str">
         <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
@@ -1664,21 +2333,24 @@
         <f aca="false">G9+I9/2</f>
         <v>12</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,F9,J9),0)</f>
         <v>10</v>
       </c>
-      <c r="L9" s="0" t="str">
+      <c r="L9" s="5" t="str">
         <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O9" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
@@ -1699,21 +2371,24 @@
         <f aca="false">G10+I10/2</f>
         <v>11.5</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,F10,J10),0)</f>
         <v>10</v>
       </c>
-      <c r="L10" s="0" t="str">
+      <c r="L10" s="5" t="str">
         <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -1734,21 +2409,24 @@
         <f aca="false">G11+I11/2</f>
         <v>2.5</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,F11,J11),0)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="0" t="str">
+      <c r="L11" s="5" t="str">
         <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -1769,21 +2447,24 @@
         <f aca="false">G12+I12/2</f>
         <v>8.5</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,F12,J12),0)</f>
         <v>10</v>
       </c>
-      <c r="L12" s="0" t="str">
+      <c r="L12" s="5" t="str">
         <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>7</v>
@@ -1804,21 +2485,24 @@
         <f aca="false">G13+I13/2</f>
         <v>7</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,F13,J13),0)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="0" t="str">
+      <c r="L13" s="5" t="str">
         <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -1839,21 +2523,24 @@
         <f aca="false">G14+I14/2</f>
         <v>2.5</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,F14,J14),0)</f>
         <v>5</v>
       </c>
-      <c r="L14" s="0" t="str">
+      <c r="L14" s="5" t="str">
         <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>9</v>
@@ -1874,21 +2561,24 @@
         <f aca="false">G15+I15/2</f>
         <v>8.5</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,F15,J15),0)</f>
         <v>9</v>
       </c>
-      <c r="L15" s="0" t="str">
+      <c r="L15" s="5" t="str">
         <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -1899,10 +2589,10 @@
       <c r="F16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="I16" s="0" t="n">
@@ -1912,21 +2602,24 @@
         <f aca="false">G16+I16/2</f>
         <v>8.5</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,F16,J16),0)</f>
         <v>9</v>
       </c>
-      <c r="L16" s="0" t="str">
+      <c r="L16" s="5" t="str">
         <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -1947,21 +2640,24 @@
         <f aca="false">G17+I17/2</f>
         <v>1</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,F17,J17),0)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="0" t="str">
+      <c r="L17" s="5" t="str">
         <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>10</v>
@@ -1972,10 +2668,10 @@
       <c r="F18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -1985,21 +2681,24 @@
         <f aca="false">G18+I18/2</f>
         <v>7.5</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,F18,J18),0)</f>
         <v>9</v>
       </c>
-      <c r="L18" s="0" t="str">
+      <c r="L18" s="5" t="str">
         <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9</v>
@@ -2020,21 +2719,24 @@
         <f aca="false">G19+I19/2</f>
         <v>1</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,F19,J19),0)</f>
         <v>7</v>
       </c>
-      <c r="L19" s="0" t="str">
+      <c r="L19" s="5" t="str">
         <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>9</v>
@@ -2055,21 +2757,24 @@
         <f aca="false">G20+I20/2</f>
         <v>2.5</v>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,F20,J20),0)</f>
         <v>8</v>
       </c>
-      <c r="L20" s="0" t="str">
+      <c r="L20" s="5" t="str">
         <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -2080,10 +2785,10 @@
       <c r="F21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="2" t="n">
         <v>45845</v>
       </c>
       <c r="I21" s="0" t="n">
@@ -2093,21 +2798,24 @@
         <f aca="false">G21+I21/2</f>
         <v>6.5</v>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,F21,J21),0)</f>
         <v>8</v>
       </c>
-      <c r="L21" s="0" t="str">
+      <c r="L21" s="5" t="str">
         <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -2128,21 +2836,24 @@
         <f aca="false">G22+I22/2</f>
         <v>11.5</v>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C22,E22,F22,J22),0)</f>
         <v>10</v>
       </c>
-      <c r="L22" s="0" t="str">
+      <c r="L22" s="5" t="str">
         <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -2163,13 +2874,16 @@
         <f aca="false">G23+I23/2</f>
         <v>7.5</v>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C23,E23,F23,J23),0)</f>
         <v>9</v>
       </c>
-      <c r="L23" s="0" t="str">
+      <c r="L23" s="5" t="str">
         <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2198,13 +2912,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -2216,22 +2930,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -2262,16 +2976,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -2285,16 +2999,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -2308,16 +3022,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -2331,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -2345,7 +3059,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -2359,16 +3073,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -2382,16 +3096,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -2410,13 +3124,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -2427,16 +3141,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -2450,7 +3164,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -2464,16 +3178,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -2487,16 +3201,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -2510,16 +3224,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -2533,16 +3247,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -2556,16 +3270,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -2579,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -2593,16 +3307,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -2616,16 +3330,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -2639,16 +3353,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -2662,16 +3376,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -2685,16 +3399,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -2713,13 +3427,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -2727,13 +3441,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>7</v>
@@ -2744,16 +3458,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -2762,17 +3476,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2789,13 +3492,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -2808,36 +3511,29 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2854,13 +3550,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -2872,22 +3568,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,16 +3591,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -2918,16 +3614,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -2941,16 +3637,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -2964,16 +3660,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -2987,7 +3683,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -3001,7 +3697,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3015,16 +3711,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -3038,16 +3734,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3061,16 +3757,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -3084,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3098,16 +3794,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -3121,16 +3817,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -3144,7 +3840,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -3158,16 +3854,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -3181,16 +3877,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -3204,7 +3900,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -3218,16 +3914,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -3241,16 +3937,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -3264,16 +3960,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -3287,16 +3983,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -3310,16 +4006,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -3338,13 +4034,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -3352,13 +4048,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -3366,13 +4062,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -3380,13 +4076,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -3397,16 +4093,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -3415,14 +4111,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3439,13 +4127,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -3457,13 +4145,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,16 +4159,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -3491,16 +4179,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -3511,16 +4199,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -3531,16 +4219,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -3551,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -3562,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3573,16 +4261,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -3593,16 +4281,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3613,16 +4301,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -3633,7 +4321,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3644,16 +4332,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -3664,16 +4352,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -3684,16 +4372,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -3704,16 +4392,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -3724,16 +4412,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -3744,7 +4432,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -3755,16 +4443,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -3775,16 +4463,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -3795,16 +4483,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -3815,16 +4503,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -3835,16 +4523,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -3855,28 +4543,21 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3895,11 +4576,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -3911,22 +4592,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3934,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3945,16 +4626,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -3965,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -3976,16 +4657,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -3996,7 +4677,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4007,7 +4688,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4018,16 +4699,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -4038,16 +4719,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -4058,16 +4739,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -4078,7 +4759,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4089,16 +4770,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -4109,16 +4790,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -4129,7 +4810,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -4140,16 +4821,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -4160,16 +4841,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4180,7 +4861,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -4191,7 +4872,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -4202,7 +4883,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -4213,16 +4894,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -4233,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4244,16 +4925,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -4261,13 +4942,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -4278,13 +4959,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
@@ -4307,11 +4988,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -4323,33 +5004,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -4360,13 +5041,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
@@ -4377,13 +5058,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -4402,13 +5083,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -4416,13 +5097,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -4430,13 +5111,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -4444,13 +5125,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -4458,13 +5139,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>4</v>
@@ -4472,13 +5153,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -4486,13 +5167,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>7</v>
@@ -4503,13 +5184,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -4520,13 +5201,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5</v>
@@ -4553,11 +5234,11 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -4570,7 +5251,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="2" t="n">
         <v>45737</v>
       </c>
     </row>
@@ -4579,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -4590,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -4601,7 +5282,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -4612,7 +5293,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -4623,7 +5304,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -4634,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -4645,7 +5326,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -4656,7 +5337,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
@@ -4667,7 +5348,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -4678,7 +5359,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -4689,7 +5370,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -4700,7 +5381,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -4711,7 +5392,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -4722,7 +5403,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -4733,7 +5414,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -4744,7 +5425,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -4755,7 +5436,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -4766,7 +5447,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -4777,7 +5458,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -4788,7 +5469,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
@@ -4799,7 +5480,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -4810,7 +5491,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>

--- a/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
+++ b/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,8 @@
     <sheet name="5-salidas" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="5-RecuP" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="positivos" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="6-if" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="evalucion" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +30,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="296">
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -45,6 +50,18 @@
     <t xml:space="preserve">obs</t>
   </si>
   <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nota</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lucila Yanel</t>
   </si>
   <si>
@@ -60,6 +77,9 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lourdes Elizabeth</t>
   </si>
   <si>
@@ -87,9 +107,6 @@
     <t xml:space="preserve">aybarguillermo@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
     <t xml:space="preserve">T</t>
   </si>
   <si>
@@ -129,9 +146,6 @@
     <t xml:space="preserve">mirkod2009@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
     <t xml:space="preserve">olimpiadas</t>
   </si>
   <si>
@@ -261,15 +275,6 @@
     <t xml:space="preserve">zarragaramiro01@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">presentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medio tarde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tarde</t>
-  </si>
-  <si>
     <t xml:space="preserve">1-codigo</t>
   </si>
   <si>
@@ -303,6 +308,9 @@
     <t xml:space="preserve">Evaluacion</t>
   </si>
   <si>
+    <t xml:space="preserve">asistencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">7 seg -1</t>
   </si>
   <si>
@@ -814,6 +822,102 @@
   </si>
   <si>
     <t xml:space="preserve">7 de mayo de 2025  18:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 48 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 43 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 11 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 minutos 45 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 minutos 36 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 1 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 minutos 33 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 minutos 33 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 minutos 52 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 minutos 44 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 minutos 29 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 minutos 32 segundos</t>
   </si>
 </sst>
 </file>
@@ -850,7 +954,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,17 +969,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB3B"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -904,7 +1021,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -917,7 +1034,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -933,6 +1058,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,7 +1079,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -958,6 +1095,59 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -970,7 +1160,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1004,7 +1194,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1027,112 +1217,113 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.34"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="V1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="W1" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>45800</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>45807</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>45814</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="n">
+      <c r="I2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="n">
         <v>45821</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="n">
+      <c r="K2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>45835</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="2" t="n">
+      <c r="N2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="P1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="P2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="Q2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>0.520833333333333</v>
+      <c r="T2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>45856</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -1144,261 +1335,422 @@
         <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:O3,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:O3,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:O3,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">ROUND(Q3+R3/2+S3/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <f aca="false">ROUND(T3*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>0.520833333333333</v>
+        <v>13</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:O4,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:O4,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:O4,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">ROUND(Q4+R4/2+S4/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <f aca="false">ROUND(T4*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>0.53125</v>
+        <v>14</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:O5,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:O5,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:O5,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">ROUND(Q5+R5/2+S5/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <f aca="false">ROUND(T5*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0.555555555555555</v>
+        <v>13</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.527777777777778</v>
+        <v>15</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>0.548611111111111</v>
+        <v>25</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:O6,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:O6,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:O6,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">ROUND(Q6+R6/2+S6/4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <f aca="false">ROUND(T6*10/$W$1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>8</v>
+      <c r="F7" s="4" t="n">
+        <v>0.555555555555555</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.527777777777778</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:O7,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:O7,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:O7,"T")</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">ROUND(Q7+R7/2+S7/4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <f aca="false">ROUND(T7*10/$W$1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>0.520833333333333</v>
+        <v>13</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:O8,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:O8,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:O8,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">ROUND(Q8+R8/2+S8/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <f aca="false">ROUND(T8*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.520833333333333</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:O9,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:O9,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:O9,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">ROUND(Q9+R9/2+S9/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <f aca="false">ROUND(T9*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -1410,544 +1762,918 @@
         <v>37</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:O10,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:O10,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:O10,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">ROUND(Q10+R10/2+S10/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <f aca="false">ROUND(T10*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:O11,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:O11,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:O11,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">ROUND(Q11+R11/2+S11/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <f aca="false">ROUND(T11*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:O12,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:O12,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:O12,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">ROUND(Q12+R12/2+S12/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <f aca="false">ROUND(T12*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:O13,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:O13,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:O13,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">ROUND(Q13+R13/2+S13/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V13" s="5" t="n">
+        <f aca="false">ROUND(T13*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:O14,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:O14,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:O14,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">ROUND(Q14+R14/2+S14/4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <f aca="false">ROUND(T14*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:O15,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:O15,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:O15,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">ROUND(Q15+R15/2+S15/4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <f aca="false">ROUND(T15*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="J16" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:O16,"P")</f>
+        <v>5</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:O16,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:O16,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">ROUND(Q16+R16/2+S16/4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="V16" s="5" t="n">
+        <f aca="false">ROUND(T16*10/$W$1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>0.541666666666667</v>
+        <v>13</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:O17,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:O17,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:O17,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">ROUND(Q17+R17/2+S17/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <f aca="false">ROUND(T17*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>0.541666666666667</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:O18,"P")</f>
+        <v>5</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:O18,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:O18,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">ROUND(Q18+R18/2+S18/4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <f aca="false">ROUND(T18*10/$W$1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.527777777777778</v>
+        <v>13</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:O19,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:O19,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:O19,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <f aca="false">ROUND(Q19+R19/2+S19/4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <f aca="false">ROUND(T19*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>0.527777777777778</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:O20,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:O20,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:O20,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">ROUND(Q20+R20/2+S20/4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <f aca="false">ROUND(T20*10/$W$1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:O21,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:O21,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:O21,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">ROUND(Q21+R21/2+S21/4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="V21" s="5" t="n">
+        <f aca="false">ROUND(T21*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" s="3" t="n">
-        <v>0.520833333333333</v>
+        <v>13</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="3" t="n">
-        <v>0.520833333333333</v>
+        <v>13</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:O22,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:O22,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:O22,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <f aca="false">ROUND(Q22+R22/2+S22/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <f aca="false">ROUND(T22*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:O23,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:O23,"M")</f>
+        <v>2</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:O23,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">ROUND(Q23+R23/2+S23/4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <f aca="false">ROUND(T23*10/$W$1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E23,"P")</f>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:O24,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:O24,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:O24,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <f aca="false">ROUND(Q24+R24/2+S24/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <f aca="false">ROUND(T24*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">COUNTIF(E3:E24,"P")</f>
         <v>20</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">COUNTIF(G2:G23,"P")</f>
+      <c r="G25" s="0" t="n">
+        <f aca="false">COUNTIF(G3:G24,"P")</f>
         <v>20</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <f aca="false">COUNTIF(H2:H23,"P")</f>
+      <c r="H25" s="0" t="n">
+        <f aca="false">COUNTIF(H3:H24,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">COUNTIF(J3:J24,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">COUNTIF(L3:L24,"P")</f>
+        <v>16</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">COUNTIF(M3:M24,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">COUNTIF(O3:O24,"P")</f>
+        <v>16</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <f aca="false">COUNTIF(W3:W24,"P")</f>
         <v>14</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <f aca="false">COUNTIF(J2:J23,"P")</f>
-        <v>21</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <f aca="false">COUNTIF(L2:L23,"P")</f>
-        <v>16</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <f aca="false">COUNTIF(M2:M23,"P")</f>
-        <v>17</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <f aca="false">COUNTIF(O2:O23,"P")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1961,66 +2687,1069 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">AVERAGE(F9:F10)</f>
+        <v>9.5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">ROUND(MAX(H9,G9),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">AVERAGE(F11:F12)</f>
+        <v>6.5</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">ROUND(MAX(H11,G11),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">AVERAGE(F24:F26)</f>
+        <v>5.66666666666667</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">ROUND(MAX(H24,G24),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I27,"&gt;0")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="20.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="3" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="9.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="I1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>91</v>
@@ -2028,13 +3757,22 @@
       <c r="P1" s="0" t="s">
         <v>92</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
@@ -2045,7 +3783,7 @@
       <c r="F2" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="6" t="n">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="n">
@@ -2058,24 +3796,40 @@
         <f aca="false">G2+I2/2</f>
         <v>8.5</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,F2,J2),0)</f>
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="str">
+      <c r="L2" s="3" t="str">
         <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M2" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>45783</v>
+      </c>
       <c r="O2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8.5</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P2,O2,M2,K2),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>10</v>
@@ -2096,24 +3850,37 @@
         <f aca="false">G3+I3/2</f>
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,F3,J3),0)</f>
         <v>10</v>
       </c>
-      <c r="L3" s="5" t="str">
+      <c r="L3" s="3" t="str">
         <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M3" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P3,O3,M3,K3),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -2124,7 +3891,7 @@
       <c r="F4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="6" t="n">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="n">
@@ -2137,24 +3904,40 @@
         <f aca="false">G4+I4/2</f>
         <v>10.5</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,F4,J4),0)</f>
         <v>9</v>
       </c>
-      <c r="L4" s="5" t="str">
+      <c r="L4" s="3" t="str">
         <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M4" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>45782</v>
+      </c>
       <c r="O4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P4,O4,M4,K4),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -2175,32 +3958,45 @@
         <f aca="false">G5+I5/2</f>
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,F5,J5),0)</f>
         <v>10</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="L5" s="3" t="str">
         <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M5" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="O5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P5,O5,M5,K5),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>45764</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -2216,35 +4012,51 @@
         <f aca="false">G6+I6/2</f>
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,F6,J6),0)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="5" t="str">
+      <c r="L6" s="3" t="str">
         <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
+      <c r="M6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O6" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P6,O6,M6,K6),0)</f>
+        <v>3</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>45842</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="n">
@@ -2257,24 +4069,40 @@
         <f aca="false">G7+I7/2</f>
         <v>5</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,F7,J7),0)</f>
-        <v>2</v>
-      </c>
-      <c r="L7" s="5" t="str">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="str">
         <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+        <v>TEA</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>45784</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P7,O7,M7,K7),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10</v>
@@ -2295,24 +4123,37 @@
         <f aca="false">G8+I8/2</f>
         <v>11.5</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,F8,J8),0)</f>
         <v>10</v>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="L8" s="3" t="str">
         <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M8" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="O8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8.75</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P8,O8,M8,K8),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
@@ -2333,24 +4174,37 @@
         <f aca="false">G9+I9/2</f>
         <v>12</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,F9,J9),0)</f>
         <v>10</v>
       </c>
-      <c r="L9" s="5" t="str">
+      <c r="L9" s="3" t="str">
         <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M9" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="O9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P9,O9,M9,K9),0)</f>
+        <v>10</v>
+      </c>
+      <c r="U9" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
@@ -2371,24 +4225,37 @@
         <f aca="false">G10+I10/2</f>
         <v>11.5</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,F10,J10),0)</f>
         <v>10</v>
       </c>
-      <c r="L10" s="5" t="str">
+      <c r="L10" s="3" t="str">
         <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M10" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="O10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8.75</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P10,O10,M10,K10),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2409,24 +4276,37 @@
         <f aca="false">G11+I11/2</f>
         <v>2.5</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,F11,J11),0)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="str">
+      <c r="L11" s="3" t="str">
         <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8.25</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P11,O11,M11,K11),0)</f>
+        <v>5</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -2447,24 +4327,37 @@
         <f aca="false">G12+I12/2</f>
         <v>8.5</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,F12,J12),0)</f>
         <v>10</v>
       </c>
-      <c r="L12" s="5" t="str">
+      <c r="L12" s="3" t="str">
         <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M12" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="O12" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8.75</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P12,O12,M12,K12),0)</f>
+        <v>10</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>7</v>
@@ -2485,24 +4378,37 @@
         <f aca="false">G13+I13/2</f>
         <v>7</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,F13,J13),0)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="5" t="str">
+      <c r="L13" s="3" t="str">
         <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M13" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="O13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9.5</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P13,O13,M13,K13),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -2523,24 +4429,37 @@
         <f aca="false">G14+I14/2</f>
         <v>2.5</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,F14,J14),0)</f>
         <v>5</v>
       </c>
-      <c r="L14" s="5" t="str">
+      <c r="L14" s="3" t="str">
         <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
+      <c r="M14" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7.25</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P14,O14,M14,K14),0)</f>
+        <v>6</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>9</v>
@@ -2561,24 +4480,37 @@
         <f aca="false">G15+I15/2</f>
         <v>8.5</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,F15,J15),0)</f>
         <v>9</v>
       </c>
-      <c r="L15" s="5" t="str">
+      <c r="L15" s="3" t="str">
         <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M15" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="O15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9.25</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P15,O15,M15,K15),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -2589,7 +4521,7 @@
       <c r="F16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="6" t="n">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="n">
@@ -2602,24 +4534,40 @@
         <f aca="false">G16+I16/2</f>
         <v>8.5</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,F16,J16),0)</f>
         <v>9</v>
       </c>
-      <c r="L16" s="5" t="str">
+      <c r="L16" s="3" t="str">
         <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M16" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>45782</v>
+      </c>
       <c r="O16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7.25</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P16,O16,M16,K16),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -2640,24 +4588,37 @@
         <f aca="false">G17+I17/2</f>
         <v>1</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,F17,J17),0)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="5" t="str">
+      <c r="L17" s="3" t="str">
         <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
+      <c r="M17" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O17" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P17,O17,M17,K17),0)</f>
+        <v>3</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>10</v>
@@ -2668,7 +4629,7 @@
       <c r="F18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="6" t="n">
         <v>6</v>
       </c>
       <c r="H18" s="2" t="n">
@@ -2681,24 +4642,37 @@
         <f aca="false">G18+I18/2</f>
         <v>7.5</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,F18,J18),0)</f>
         <v>9</v>
       </c>
-      <c r="L18" s="5" t="str">
+      <c r="L18" s="3" t="str">
         <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M18" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P18,O18,M18,K18),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9</v>
@@ -2719,24 +4693,37 @@
         <f aca="false">G19+I19/2</f>
         <v>1</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,F19,J19),0)</f>
         <v>7</v>
       </c>
-      <c r="L19" s="5" t="str">
+      <c r="L19" s="3" t="str">
         <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8.5</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P19,O19,M19,K19),0)</f>
+        <v>6</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>9</v>
@@ -2757,24 +4744,37 @@
         <f aca="false">G20+I20/2</f>
         <v>2.5</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,F20,J20),0)</f>
         <v>8</v>
       </c>
-      <c r="L20" s="5" t="str">
+      <c r="L20" s="3" t="str">
         <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8.5</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P20,O20,M20,K20),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -2785,7 +4785,7 @@
       <c r="F21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="11" t="n">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="n">
@@ -2798,24 +4798,40 @@
         <f aca="false">G21+I21/2</f>
         <v>6.5</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,F21,J21),0)</f>
         <v>8</v>
       </c>
-      <c r="L21" s="5" t="str">
+      <c r="L21" s="3" t="str">
         <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M21" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" s="9" t="n">
+        <v>45784</v>
+      </c>
       <c r="O21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P21,O21,M21,K21),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -2836,24 +4852,40 @@
         <f aca="false">G22+I22/2</f>
         <v>11.5</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C22,E22,F22,J22),0)</f>
         <v>10</v>
       </c>
-      <c r="L22" s="5" t="str">
+      <c r="L22" s="3" t="str">
         <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M22" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>45782</v>
+      </c>
       <c r="O22" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9.25</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P22,O22,M22,K22),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -2874,27 +4906,47 @@
         <f aca="false">G23+I23/2</f>
         <v>7.5</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C23,E23,F23,J23),0)</f>
         <v>9</v>
       </c>
-      <c r="L23" s="5" t="str">
+      <c r="L23" s="3" t="str">
         <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="M23" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="10" t="n">
+        <f aca="false">ROUND(AVERAGE(P23,O23,M23,K23),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K23">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>7</formula>
+  <conditionalFormatting sqref="L2:L23">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L23">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"TEP"</formula>
+  <conditionalFormatting sqref="Q2:Q23">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>4</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2914,11 +4966,11 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -2927,25 +4979,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,16 +5005,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -2976,16 +5028,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -2999,16 +5051,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -3022,16 +5074,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -3045,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -3059,7 +5111,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3073,16 +5125,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -3096,16 +5148,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3124,13 +5176,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -3141,16 +5193,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -3164,7 +5216,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -3178,16 +5230,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3201,16 +5253,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -3224,16 +5276,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -3247,16 +5299,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -3270,16 +5322,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -3293,7 +5345,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -3307,16 +5359,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -3330,16 +5382,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -3353,16 +5405,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3376,16 +5428,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -3399,16 +5451,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -3427,13 +5479,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -3441,13 +5493,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>7</v>
@@ -3458,16 +5510,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -3494,11 +5546,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -3508,27 +5560,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -3552,11 +5604,11 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -3565,25 +5617,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,16 +5643,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -3614,16 +5666,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -3637,16 +5689,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -3660,16 +5712,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -3683,7 +5735,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -3697,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3711,16 +5763,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -3734,16 +5786,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3757,16 +5809,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -3780,7 +5832,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3794,16 +5846,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -3817,16 +5869,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -3840,7 +5892,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -3854,16 +5906,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -3877,16 +5929,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -3900,7 +5952,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -3914,16 +5966,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -3937,16 +5989,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -3960,16 +6012,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -3983,16 +6035,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -4006,16 +6058,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -4034,13 +6086,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -4048,13 +6100,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -4062,13 +6114,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -4076,13 +6128,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -4093,16 +6145,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -4129,11 +6181,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -4142,16 +6194,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,16 +6211,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -4179,16 +6231,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -4199,16 +6251,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -4219,16 +6271,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -4239,7 +6291,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4250,7 +6302,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4261,16 +6313,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -4281,16 +6333,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -4301,16 +6353,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4321,7 +6373,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4332,16 +6384,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -4352,16 +6404,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -4372,16 +6424,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -4392,16 +6444,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -4412,16 +6464,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -4432,7 +6484,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -4443,16 +6495,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -4463,16 +6515,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -4483,16 +6535,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -4503,16 +6555,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -4523,16 +6575,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -4543,16 +6595,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -4576,11 +6628,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -4589,25 +6641,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -4626,16 +6678,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -4646,7 +6698,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -4657,16 +6709,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -4677,7 +6729,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4688,7 +6740,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4699,16 +6751,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -4719,16 +6771,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -4739,16 +6791,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -4759,7 +6811,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4770,16 +6822,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -4790,16 +6842,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -4810,7 +6862,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -4821,16 +6873,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -4841,16 +6893,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4861,7 +6913,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -4872,7 +6924,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -4883,7 +6935,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -4894,16 +6946,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -4914,7 +6966,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4925,16 +6977,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -4942,13 +6994,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -4959,7 +7011,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -4988,11 +7040,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -5001,36 +7053,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -5041,13 +7093,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
@@ -5058,13 +7110,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -5083,13 +7135,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -5097,13 +7149,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -5111,13 +7163,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -5125,13 +7177,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -5139,13 +7191,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>4</v>
@@ -5153,13 +7205,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -5167,13 +7219,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>7</v>
@@ -5184,13 +7236,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -5201,13 +7253,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5</v>
@@ -5234,11 +7286,11 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -5246,10 +7298,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="n">
         <v>45737</v>
@@ -5260,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -5271,7 +7323,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -5282,7 +7334,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -5293,7 +7345,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -5304,7 +7356,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -5315,7 +7367,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -5326,7 +7378,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -5337,7 +7389,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
@@ -5348,7 +7400,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -5359,7 +7411,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -5370,7 +7422,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -5381,7 +7433,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -5392,7 +7444,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -5403,7 +7455,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -5414,7 +7466,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -5425,7 +7477,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -5436,7 +7488,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -5447,7 +7499,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -5458,7 +7510,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -5469,7 +7521,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
@@ -5480,7 +7532,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -5491,7 +7543,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>

--- a/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
+++ b/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="297">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t xml:space="preserve">7 seg-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperacion Agosto</t>
   </si>
   <si>
     <t xml:space="preserve">Finalizado</t>
@@ -1021,7 +1024,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1031,10 +1034,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,10 +1061,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1079,7 +1074,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1130,21 +1125,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1219,11 +1199,11 @@
   </sheetPr>
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -1246,7 +1226,7 @@
       <c r="V1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="W1" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1355,7 +1335,7 @@
       <c r="O3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="3" t="n">
         <v>0.520833333333333</v>
       </c>
       <c r="Q3" s="0" t="n">
@@ -1374,7 +1354,7 @@
         <f aca="false">ROUND(Q3+R3/2+S3/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="4" t="n">
         <f aca="false">ROUND(T3*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -1432,7 +1412,7 @@
         <f aca="false">ROUND(Q4+R4/2+S4/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="4" t="n">
         <f aca="false">ROUND(T4*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -1474,7 +1454,7 @@
       <c r="O5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="3" t="n">
         <v>0.520833333333333</v>
       </c>
       <c r="Q5" s="0" t="n">
@@ -1493,7 +1473,7 @@
         <f aca="false">ROUND(Q5+R5/2+S5/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="4" t="n">
         <f aca="false">ROUND(T5*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -1535,7 +1515,7 @@
       <c r="O6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="3" t="n">
         <v>0.53125</v>
       </c>
       <c r="Q6" s="0" t="n">
@@ -1554,7 +1534,7 @@
         <f aca="false">ROUND(Q6+R6/2+S6/4,0)</f>
         <v>3</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="4" t="n">
         <f aca="false">ROUND(T6*10/$W$1,0)</f>
         <v>4</v>
       </c>
@@ -1578,7 +1558,7 @@
       <c r="E7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.555555555555555</v>
       </c>
       <c r="G7" s="0" t="s">
@@ -1587,7 +1567,7 @@
       <c r="H7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="3" t="n">
         <v>0.527777777777778</v>
       </c>
       <c r="J7" s="0" t="s">
@@ -1602,7 +1582,7 @@
       <c r="O7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="3" t="n">
         <v>0.548611111111111</v>
       </c>
       <c r="Q7" s="0" t="n">
@@ -1621,7 +1601,7 @@
         <f aca="false">ROUND(Q7+R7/2+S7/4,0)</f>
         <v>3</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="4" t="n">
         <f aca="false">ROUND(T7*10/$W$1,0)</f>
         <v>4</v>
       </c>
@@ -1679,7 +1659,7 @@
         <f aca="false">ROUND(Q8+R8/2+S8/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="4" t="n">
         <f aca="false">ROUND(T8*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -1718,7 +1698,7 @@
       <c r="M9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="3" t="n">
         <v>0.520833333333333</v>
       </c>
       <c r="O9" s="0" t="s">
@@ -1740,7 +1720,7 @@
         <f aca="false">ROUND(Q9+R9/2+S9/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="4" t="n">
         <f aca="false">ROUND(T9*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -1801,7 +1781,7 @@
         <f aca="false">ROUND(Q10+R10/2+S10/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V10" s="5" t="n">
+      <c r="V10" s="4" t="n">
         <f aca="false">ROUND(T10*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -1859,7 +1839,7 @@
         <f aca="false">ROUND(Q11+R11/2+S11/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V11" s="5" t="n">
+      <c r="V11" s="4" t="n">
         <f aca="false">ROUND(T11*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -1917,7 +1897,7 @@
         <f aca="false">ROUND(Q12+R12/2+S12/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="4" t="n">
         <f aca="false">ROUND(T12*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -1978,7 +1958,7 @@
         <f aca="false">ROUND(Q13+R13/2+S13/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="4" t="n">
         <f aca="false">ROUND(T13*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -2036,7 +2016,7 @@
         <f aca="false">ROUND(Q14+R14/2+S14/4,0)</f>
         <v>6</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="4" t="n">
         <f aca="false">ROUND(T14*10/$W$1,0)</f>
         <v>9</v>
       </c>
@@ -2094,7 +2074,7 @@
         <f aca="false">ROUND(Q15+R15/2+S15/4,0)</f>
         <v>6</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="4" t="n">
         <f aca="false">ROUND(T15*10/$W$1,0)</f>
         <v>9</v>
       </c>
@@ -2152,7 +2132,7 @@
         <f aca="false">ROUND(Q16+R16/2+S16/4,0)</f>
         <v>5</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="4" t="n">
         <f aca="false">ROUND(T16*10/$W$1,0)</f>
         <v>7</v>
       </c>
@@ -2210,7 +2190,7 @@
         <f aca="false">ROUND(Q17+R17/2+S17/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="4" t="n">
         <f aca="false">ROUND(T17*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -2243,7 +2223,7 @@
       <c r="J18" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="L18" s="0" t="s">
@@ -2271,7 +2251,7 @@
         <f aca="false">ROUND(Q18+R18/2+S18/4,0)</f>
         <v>5</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="4" t="n">
         <f aca="false">ROUND(T18*10/$W$1,0)</f>
         <v>7</v>
       </c>
@@ -2329,7 +2309,7 @@
         <f aca="false">ROUND(Q19+R19/2+S19/4,0)</f>
         <v>6</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="4" t="n">
         <f aca="false">ROUND(T19*10/$W$1,0)</f>
         <v>9</v>
       </c>
@@ -2359,7 +2339,7 @@
       <c r="H20" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="3" t="n">
         <v>0.527777777777778</v>
       </c>
       <c r="J20" s="0" t="s">
@@ -2390,7 +2370,7 @@
         <f aca="false">ROUND(Q20+R20/2+S20/4,0)</f>
         <v>4</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="4" t="n">
         <f aca="false">ROUND(T20*10/$W$1,0)</f>
         <v>6</v>
       </c>
@@ -2448,7 +2428,7 @@
         <f aca="false">ROUND(Q21+R21/2+S21/4,0)</f>
         <v>6</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="4" t="n">
         <f aca="false">ROUND(T21*10/$W$1,0)</f>
         <v>9</v>
       </c>
@@ -2506,7 +2486,7 @@
         <f aca="false">ROUND(Q22+R22/2+S22/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="4" t="n">
         <f aca="false">ROUND(T22*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -2548,13 +2528,13 @@
       <c r="M23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="4" t="n">
+      <c r="N23" s="3" t="n">
         <v>0.520833333333333</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P23" s="4" t="n">
+      <c r="P23" s="3" t="n">
         <v>0.520833333333333</v>
       </c>
       <c r="Q23" s="0" t="n">
@@ -2573,7 +2553,7 @@
         <f aca="false">ROUND(Q23+R23/2+S23/4,0)</f>
         <v>4</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="4" t="n">
         <f aca="false">ROUND(T23*10/$W$1,0)</f>
         <v>6</v>
       </c>
@@ -2631,7 +2611,7 @@
         <f aca="false">ROUND(Q24+R24/2+S24/4,0)</f>
         <v>7</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="4" t="n">
         <f aca="false">ROUND(T24*10/$W$1,0)</f>
         <v>10</v>
       </c>
@@ -2692,13 +2672,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.04"/>
@@ -2714,19 +2694,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2737,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -2794,7 +2774,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -2845,7 +2825,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -2868,7 +2848,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -2893,7 +2873,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -2913,7 +2893,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -2938,7 +2918,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -2972,7 +2952,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -2995,7 +2975,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
@@ -3032,7 +3012,7 @@
         <v>54</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>6</v>
@@ -3139,7 +3119,7 @@
         <v>75</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -3164,7 +3144,7 @@
         <v>75</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>5</v>
@@ -3178,7 +3158,7 @@
         <v>75</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -3230,11 +3210,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="20.2"/>
@@ -3249,10 +3229,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8.5</v>
@@ -3289,7 +3269,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -3309,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -3329,7 +3309,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -3360,7 +3340,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3380,7 +3360,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8.75</v>
@@ -3400,7 +3380,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3420,7 +3400,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.75</v>
@@ -3440,7 +3420,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8.25</v>
@@ -3460,7 +3440,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8.75</v>
@@ -3480,7 +3460,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9.5</v>
@@ -3500,7 +3480,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7.25</v>
@@ -3520,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9.25</v>
@@ -3540,7 +3520,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7.25</v>
@@ -3571,7 +3551,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -3591,7 +3571,7 @@
         <v>66</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8.5</v>
@@ -3611,7 +3591,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8.5</v>
@@ -3631,7 +3611,7 @@
         <v>72</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3651,7 +3631,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9.25</v>
@@ -3671,7 +3651,7 @@
         <v>78</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -3693,19 +3673,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U6" activeCellId="0" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="3" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="3" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="14" style="0" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,45 +3705,57 @@
         <v>83</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>82</v>
       </c>
       <c r="I1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="U1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="X1" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3780,51 +3772,51 @@
       <c r="E2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <f aca="false">G2+I2/2</f>
+      <c r="L2" s="0" t="n">
+        <f aca="false">I2+K2/2</f>
         <v>8.5</v>
       </c>
-      <c r="K2" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C2,E2,F2,J2),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="str">
-        <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
+      <c r="M2" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C2,E2,G2,L2),0)</f>
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="str">
+        <f aca="false">IF(M2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="O2" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="P2" s="8" t="n">
         <v>45783</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P2,O2,M2,K2),0)</f>
+      <c r="S2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S2,Q2,O2,M2),0)</f>
         <v>8</v>
       </c>
-      <c r="U2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -3837,45 +3829,45 @@
       <c r="E3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G3" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <f aca="false">G3+I3/2</f>
-        <v>9</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C3,E3,F3,J3),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L3" s="3" t="str">
-        <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
+      <c r="L3" s="0" t="n">
+        <f aca="false">I3+K3/2</f>
+        <v>9</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C3,E3,G3,L3),0)</f>
+        <v>10</v>
+      </c>
+      <c r="N3" s="6" t="str">
+        <f aca="false">IF(M3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P3,O3,M3,K3),0)</f>
-        <v>9</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S3,Q3,O3,M3),0)</f>
+        <v>9</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -3888,51 +3880,51 @@
       <c r="E4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="G4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <f aca="false">G4+I4/2</f>
+      <c r="L4" s="0" t="n">
+        <f aca="false">I4+K4/2</f>
         <v>10.5</v>
       </c>
-      <c r="K4" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C4,E4,F4,J4),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L4" s="3" t="str">
-        <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
+      <c r="M4" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C4,E4,G4,L4),0)</f>
+        <v>9</v>
+      </c>
+      <c r="N4" s="6" t="str">
+        <f aca="false">IF(M4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M4" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="N4" s="9" t="n">
+      <c r="O4" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="P4" s="8" t="n">
         <v>45782</v>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P4,O4,M4,K4),0)</f>
-        <v>9</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S4,Q4,O4,M4),0)</f>
+        <v>9</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -3945,159 +3937,180 @@
       <c r="E5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G5" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">G5+I5/2</f>
+      <c r="L5" s="0" t="n">
+        <f aca="false">I5+K5/2</f>
         <v>11</v>
       </c>
-      <c r="K5" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C5,E5,F5,J5),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L5" s="3" t="str">
-        <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
+      <c r="M5" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C5,E5,G5,L5),0)</f>
+        <v>10</v>
+      </c>
+      <c r="N5" s="6" t="str">
+        <f aca="false">IF(M5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q5" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P5,O5,M5,K5),0)</f>
+      <c r="T5" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S5,Q5,O5,M5),0)</f>
         <v>8</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="5" t="n">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>45764</v>
       </c>
-      <c r="E6" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="E6" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>45875</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>45875</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <f aca="false">G6+I6/2</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C6,E6,F6,J6),0)</f>
+      <c r="L6" s="0" t="n">
+        <f aca="false">I6+K6/2</f>
         <v>5</v>
       </c>
-      <c r="L6" s="3" t="str">
-        <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="M6" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C6,E6,G6,L6),0)</f>
+        <v>7</v>
+      </c>
+      <c r="N6" s="6" t="str">
+        <f aca="false">IF(M6&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>45875</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P6,O6,M6,K6),0)</f>
-        <v>3</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T6" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S6,Q6,O6,M6),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9" t="n">
+      <c r="C7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="n">
         <v>45842</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="n">
+      <c r="E7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">G7+I7/2</f>
+      <c r="L7" s="0" t="n">
+        <f aca="false">I7+K7/2</f>
         <v>5</v>
       </c>
-      <c r="K7" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C7,E7,F7,J7),0)</f>
+      <c r="M7" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C7,E7,G7,L7),0)</f>
         <v>8</v>
       </c>
-      <c r="L7" s="3" t="str">
-        <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
+      <c r="N7" s="6" t="str">
+        <f aca="false">IF(M7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="O7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="P7" s="8" t="n">
         <v>45784</v>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P7,O7,M7,K7),0)</f>
-        <v>9</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S7,Q7,O7,M7),0)</f>
+        <v>9</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -4110,45 +4123,45 @@
       <c r="E8" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <f aca="false">G8+I8/2</f>
+      <c r="L8" s="0" t="n">
+        <f aca="false">I8+K8/2</f>
         <v>11.5</v>
       </c>
-      <c r="K8" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C8,E8,F8,J8),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L8" s="3" t="str">
-        <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
+      <c r="M8" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C8,E8,G8,L8),0)</f>
+        <v>10</v>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f aca="false">IF(M8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>8.75</v>
       </c>
-      <c r="P8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P8,O8,M8,K8),0)</f>
-        <v>9</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S8,Q8,O8,M8),0)</f>
+        <v>9</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -4161,45 +4174,45 @@
       <c r="E9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">G9+I9/2</f>
+      <c r="L9" s="0" t="n">
+        <f aca="false">I9+K9/2</f>
         <v>12</v>
       </c>
-      <c r="K9" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C9,E9,F9,J9),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L9" s="3" t="str">
-        <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
+      <c r="M9" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C9,E9,G9,L9),0)</f>
+        <v>10</v>
+      </c>
+      <c r="N9" s="6" t="str">
+        <f aca="false">IF(M9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M9" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P9,O9,M9,K9),0)</f>
-        <v>10</v>
-      </c>
-      <c r="U9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S9,Q9,O9,M9),0)</f>
+        <v>10</v>
+      </c>
+      <c r="X9" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -4212,45 +4225,45 @@
       <c r="E10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <f aca="false">G10+I10/2</f>
+      <c r="L10" s="0" t="n">
+        <f aca="false">I10+K10/2</f>
         <v>11.5</v>
       </c>
-      <c r="K10" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C10,E10,F10,J10),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L10" s="3" t="str">
-        <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
+      <c r="M10" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C10,E10,G10,L10),0)</f>
+        <v>10</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f aca="false">IF(M10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M10" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="O10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>8.75</v>
       </c>
-      <c r="P10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P10,O10,M10,K10),0)</f>
-        <v>9</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S10,Q10,O10,M10),0)</f>
+        <v>9</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -4263,45 +4276,48 @@
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">G11+I11/2</f>
+      <c r="L11" s="0" t="n">
+        <f aca="false">I11+K11/2</f>
         <v>2.5</v>
       </c>
-      <c r="K11" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C11,E11,F11,J11),0)</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="str">
-        <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
+      <c r="M11" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C11,E11,G11,L11),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f aca="false">IF(M11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="M11" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="0" t="n">
         <v>8.25</v>
       </c>
-      <c r="P11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P11,O11,M11,K11),0)</f>
+      <c r="S11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S11,Q11,O11,M11),0)</f>
         <v>5</v>
       </c>
-      <c r="U11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -4314,45 +4330,45 @@
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G12" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">G12+I12/2</f>
+      <c r="L12" s="0" t="n">
+        <f aca="false">I12+K12/2</f>
         <v>8.5</v>
       </c>
-      <c r="K12" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C12,E12,F12,J12),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L12" s="3" t="str">
-        <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
+      <c r="M12" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C12,E12,G12,L12),0)</f>
+        <v>10</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f aca="false">IF(M12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>8.75</v>
       </c>
-      <c r="P12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P12,O12,M12,K12),0)</f>
-        <v>10</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S12,Q12,O12,M12),0)</f>
+        <v>10</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -4365,45 +4381,45 @@
       <c r="E13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="G13" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <f aca="false">G13+I13/2</f>
-        <v>7</v>
-      </c>
-      <c r="K13" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C13,E13,F13,J13),0)</f>
+      <c r="L13" s="0" t="n">
+        <f aca="false">I13+K13/2</f>
+        <v>7</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C13,E13,G13,L13),0)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="3" t="str">
-        <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
+      <c r="N13" s="6" t="str">
+        <f aca="false">IF(M13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="O13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>9.5</v>
       </c>
-      <c r="P13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P13,O13,M13,K13),0)</f>
-        <v>9</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T13" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S13,Q13,O13,M13),0)</f>
+        <v>9</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -4413,48 +4429,63 @@
       <c r="C14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>7</v>
+      <c r="E14" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>45877</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>45877</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <f aca="false">G14+I14/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C14,E14,F14,J14),0)</f>
+      <c r="L14" s="0" t="n">
+        <f aca="false">I14+K14/2</f>
+        <v>5.5</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C14,E14,G14,L14),0)</f>
+        <v>7</v>
+      </c>
+      <c r="N14" s="6" t="str">
+        <f aca="false">IF(M14&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+      <c r="O14" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="L14" s="3" t="str">
-        <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="8" t="n">
+        <v>45877</v>
+      </c>
+      <c r="Q14" s="0" t="n">
         <v>7.25</v>
       </c>
-      <c r="P14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P14,O14,M14,K14),0)</f>
-        <v>6</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T14" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S14,Q14,O14,M14),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -4467,45 +4498,45 @@
       <c r="E15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="G15" s="0" t="n">
         <v>7</v>
       </c>
       <c r="I15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">G15+I15/2</f>
+      <c r="L15" s="0" t="n">
+        <f aca="false">I15+K15/2</f>
         <v>8.5</v>
       </c>
-      <c r="K15" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C15,E15,F15,J15),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L15" s="3" t="str">
-        <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
+      <c r="M15" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C15,E15,G15,L15),0)</f>
+        <v>9</v>
+      </c>
+      <c r="N15" s="6" t="str">
+        <f aca="false">IF(M15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>9.25</v>
       </c>
-      <c r="P15" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P15,O15,M15,K15),0)</f>
+      <c r="S15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S15,Q15,O15,M15),0)</f>
         <v>8</v>
       </c>
-      <c r="U15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -4518,102 +4549,108 @@
       <c r="E16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2" t="n">
+      <c r="G16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <f aca="false">G16+I16/2</f>
+      <c r="L16" s="0" t="n">
+        <f aca="false">I16+K16/2</f>
         <v>8.5</v>
       </c>
-      <c r="K16" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C16,E16,F16,J16),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L16" s="3" t="str">
-        <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
+      <c r="M16" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C16,E16,G16,L16),0)</f>
+        <v>9</v>
+      </c>
+      <c r="N16" s="6" t="str">
+        <f aca="false">IF(M16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="O16" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="N16" s="9" t="n">
+      <c r="P16" s="8" t="n">
         <v>45782</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>7.25</v>
       </c>
-      <c r="P16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P16,O16,M16,K16),0)</f>
+      <c r="S16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S16,Q16,O16,M16),0)</f>
         <v>8</v>
       </c>
-      <c r="U16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
+      <c r="C17" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>45877</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="0" t="n">
-        <f aca="false">G17+I17/2</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C17,E17,F17,J17),0)</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="3" t="str">
-        <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
+      <c r="L17" s="0" t="n">
+        <f aca="false">I17+K17/2</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C17,E17,G17,L17),0)</f>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6" t="str">
+        <f aca="false">IF(M17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="M17" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="O17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P17,O17,M17,K17),0)</f>
+      <c r="Q17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S17,Q17,O17,M17),0)</f>
         <v>3</v>
       </c>
-      <c r="U17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -4626,48 +4663,48 @@
       <c r="E18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="I18" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="J18" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <f aca="false">G18+I18/2</f>
+      <c r="L18" s="0" t="n">
+        <f aca="false">I18+K18/2</f>
         <v>7.5</v>
       </c>
-      <c r="K18" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C18,E18,F18,J18),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L18" s="3" t="str">
-        <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
+      <c r="M18" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C18,E18,G18,L18),0)</f>
+        <v>9</v>
+      </c>
+      <c r="N18" s="6" t="str">
+        <f aca="false">IF(M18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M18" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="O18" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P18,O18,M18,K18),0)</f>
-        <v>7</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S18,Q18,O18,M18),0)</f>
+        <v>7</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -4680,45 +4717,48 @@
       <c r="E19" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <f aca="false">G19+I19/2</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C19,E19,F19,J19),0)</f>
-        <v>7</v>
-      </c>
-      <c r="L19" s="3" t="str">
-        <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
+      <c r="L19" s="0" t="n">
+        <f aca="false">I19+K19/2</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C19,E19,G19,L19),0)</f>
+        <v>7</v>
+      </c>
+      <c r="N19" s="6" t="str">
+        <f aca="false">IF(M19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M19" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q19" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P19,O19,M19,K19),0)</f>
+      <c r="T19" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S19,Q19,O19,M19),0)</f>
         <v>6</v>
       </c>
-      <c r="U19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
@@ -4731,45 +4771,45 @@
       <c r="E20" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="G20" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <f aca="false">G20+I20/2</f>
+      <c r="L20" s="0" t="n">
+        <f aca="false">I20+K20/2</f>
         <v>2.5</v>
       </c>
-      <c r="K20" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C20,E20,F20,J20),0)</f>
+      <c r="M20" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C20,E20,G20,L20),0)</f>
         <v>8</v>
       </c>
-      <c r="L20" s="3" t="str">
-        <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
+      <c r="N20" s="6" t="str">
+        <f aca="false">IF(M20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M20" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="P20" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P20,O20,M20,K20),0)</f>
-        <v>7</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S20,Q20,O20,M20),0)</f>
+        <v>7</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -4782,51 +4822,51 @@
       <c r="E21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="J21" s="2" t="n">
         <v>45845</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="0" t="n">
-        <f aca="false">G21+I21/2</f>
+      <c r="L21" s="0" t="n">
+        <f aca="false">I21+K21/2</f>
         <v>6.5</v>
       </c>
-      <c r="K21" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C21,E21,F21,J21),0)</f>
+      <c r="M21" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C21,E21,G21,L21),0)</f>
         <v>8</v>
       </c>
-      <c r="L21" s="3" t="str">
-        <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
+      <c r="N21" s="6" t="str">
+        <f aca="false">IF(M21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M21" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="N21" s="9" t="n">
+      <c r="O21" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="P21" s="8" t="n">
         <v>45784</v>
       </c>
-      <c r="O21" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P21,O21,M21,K21),0)</f>
-        <v>9</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S21,Q21,O21,M21),0)</f>
+        <v>9</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
@@ -4839,48 +4879,48 @@
       <c r="E22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="G22" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J22" s="0" t="n">
-        <f aca="false">G22+I22/2</f>
+      <c r="L22" s="0" t="n">
+        <f aca="false">I22+K22/2</f>
         <v>11.5</v>
       </c>
-      <c r="K22" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C22,E22,F22,J22),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L22" s="3" t="str">
-        <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
+      <c r="M22" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C22,E22,G22,L22),0)</f>
+        <v>10</v>
+      </c>
+      <c r="N22" s="6" t="str">
+        <f aca="false">IF(M22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M22" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="N22" s="9" t="n">
+      <c r="O22" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="P22" s="8" t="n">
         <v>45782</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>9.25</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q22" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P22,O22,M22,K22),0)</f>
+      <c r="T22" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S22,Q22,O22,M22),0)</f>
         <v>8</v>
       </c>
-      <c r="U22" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
@@ -4893,51 +4933,51 @@
       <c r="E23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="0" t="n">
-        <f aca="false">G23+I23/2</f>
+      <c r="L23" s="0" t="n">
+        <f aca="false">I23+K23/2</f>
         <v>7.5</v>
       </c>
-      <c r="K23" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(C23,E23,F23,J23),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L23" s="3" t="str">
-        <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
+      <c r="M23" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C23,E23,G23,L23),0)</f>
+        <v>9</v>
+      </c>
+      <c r="N23" s="6" t="str">
+        <f aca="false">IF(M23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M23" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="O23" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="10" t="n">
-        <f aca="false">ROUND(AVERAGE(P23,O23,M23,K23),0)</f>
-        <v>7</v>
-      </c>
-      <c r="U23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(S23,Q23,O23,M23),0)</f>
+        <v>7</v>
+      </c>
+      <c r="X23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L23">
+  <conditionalFormatting sqref="N2:N23">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q23">
+  <conditionalFormatting sqref="T2:T23">
     <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>6</formula>
     </cfRule>
@@ -4966,11 +5006,11 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -4982,22 +5022,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,10 +5051,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5034,10 +5074,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -5057,10 +5097,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -5080,10 +5120,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5131,10 +5171,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -5154,10 +5194,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5179,10 +5219,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -5199,10 +5239,10 @@
         <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -5236,10 +5276,10 @@
         <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -5259,10 +5299,10 @@
         <v>49</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -5282,10 +5322,10 @@
         <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5305,10 +5345,10 @@
         <v>55</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -5328,10 +5368,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -5365,10 +5405,10 @@
         <v>64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -5388,10 +5428,10 @@
         <v>67</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -5411,10 +5451,10 @@
         <v>70</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5434,10 +5474,10 @@
         <v>73</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -5457,10 +5497,10 @@
         <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5482,10 +5522,10 @@
         <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -5496,10 +5536,10 @@
         <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>7</v>
@@ -5516,10 +5556,10 @@
         <v>79</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5546,11 +5586,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -5563,13 +5603,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,10 +5617,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -5604,11 +5644,11 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -5620,22 +5660,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5649,10 +5689,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5672,10 +5712,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -5695,10 +5735,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -5718,10 +5758,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5769,10 +5809,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -5792,10 +5832,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5815,10 +5855,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>153</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -5852,10 +5892,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5875,10 +5915,10 @@
         <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -5912,10 +5952,10 @@
         <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5935,10 +5975,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -5972,10 +6012,10 @@
         <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -5995,10 +6035,10 @@
         <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6018,10 +6058,10 @@
         <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -6041,10 +6081,10 @@
         <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -6064,10 +6104,10 @@
         <v>76</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -6089,10 +6129,10 @@
         <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -6103,10 +6143,10 @@
         <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -6117,10 +6157,10 @@
         <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -6131,10 +6171,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -6151,10 +6191,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -6181,11 +6221,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -6197,13 +6237,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6217,10 +6257,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -6237,10 +6277,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -6257,10 +6297,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -6277,10 +6317,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6319,10 +6359,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -6339,10 +6379,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -6359,10 +6399,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -6390,10 +6430,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -6410,10 +6450,10 @@
         <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6430,10 +6470,10 @@
         <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -6450,10 +6490,10 @@
         <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -6470,10 +6510,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -6501,10 +6541,10 @@
         <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -6521,10 +6561,10 @@
         <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -6541,10 +6581,10 @@
         <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -6561,10 +6601,10 @@
         <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -6581,10 +6621,10 @@
         <v>76</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -6601,10 +6641,10 @@
         <v>79</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -6628,11 +6668,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -6644,22 +6684,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6684,10 +6724,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -6715,10 +6755,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -6757,10 +6797,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -6777,10 +6817,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -6797,10 +6837,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -6828,10 +6868,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -6848,10 +6888,10 @@
         <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -6879,10 +6919,10 @@
         <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -6899,10 +6939,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -6952,10 +6992,10 @@
         <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -6983,10 +7023,10 @@
         <v>76</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -6997,10 +7037,10 @@
         <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -7040,11 +7080,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7056,22 +7096,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,10 +7119,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -7096,10 +7136,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
@@ -7113,10 +7153,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -7138,10 +7178,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -7152,10 +7192,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -7166,10 +7206,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -7180,10 +7220,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -7194,10 +7234,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>4</v>
@@ -7208,10 +7248,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -7222,10 +7262,10 @@
         <v>58</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>7</v>
@@ -7239,10 +7279,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -7256,10 +7296,10 @@
         <v>73</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5</v>
@@ -7286,11 +7326,11 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>

--- a/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
+++ b/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="300">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -248,6 +248,9 @@
     <t xml:space="preserve">habibiaraceli08@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">se fue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matías</t>
   </si>
   <si>
@@ -273,6 +276,12 @@
   </si>
   <si>
     <t xml:space="preserve">zarragaramiro01@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media falta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toal</t>
   </si>
   <si>
     <t xml:space="preserve">1-codigo</t>
@@ -1197,19 +1206,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z24" activeCellId="0" sqref="Z24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.34"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="11" min="5" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="22" min="13" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,6 +1311,18 @@
       <c r="W2" s="2" t="n">
         <v>45856</v>
       </c>
+      <c r="X2" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1361,6 +1384,12 @@
       <c r="W3" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="X3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1419,6 +1448,12 @@
       <c r="W4" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1480,6 +1515,12 @@
       <c r="W5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1541,6 +1582,12 @@
       <c r="W6" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="X6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1608,6 +1655,15 @@
       <c r="W7" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="X7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>0.532638888888889</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1666,6 +1722,15 @@
       <c r="W8" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="X8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>0.517361111111111</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1727,6 +1792,12 @@
       <c r="W9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1788,6 +1859,12 @@
       <c r="W10" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1846,6 +1923,12 @@
       <c r="W11" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1904,6 +1987,12 @@
       <c r="W12" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1965,6 +2054,12 @@
       <c r="W13" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2023,6 +2118,12 @@
       <c r="W14" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="X14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2081,6 +2182,12 @@
       <c r="W15" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2139,6 +2246,12 @@
       <c r="W16" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2197,6 +2310,12 @@
       <c r="W17" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2258,6 +2377,12 @@
       <c r="W18" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2316,6 +2441,12 @@
       <c r="W19" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2377,6 +2508,12 @@
       <c r="W20" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2435,19 +2572,25 @@
       <c r="W21" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="X21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>13</v>
@@ -2493,19 +2636,25 @@
       <c r="W22" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="X22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>13</v>
@@ -2560,19 +2709,28 @@
       <c r="W23" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="X23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA23" s="3" t="n">
+        <v>0.517361111111111</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>13</v>
@@ -2618,8 +2776,17 @@
       <c r="W24" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="X24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="D25" s="0" t="s">
         <v>6</v>
       </c>
@@ -2654,6 +2821,53 @@
       <c r="W25" s="0" t="n">
         <f aca="false">COUNTIF(W3:W24,"P")</f>
         <v>14</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <f aca="false">COUNTIF(X3:X24,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z24,"P")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <f aca="false">COUNTIF(X3:X24,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z24,"M")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <f aca="false">COUNTIF(X3:X24,"T")</f>
+        <v>2</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z24,"T")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <f aca="false">SUM(X25:X27)</f>
+        <v>19</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <f aca="false">SUM(Z25:Z27)</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2892,7 @@
       <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.04"/>
@@ -2694,19 +2908,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,7 +2951,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -2774,7 +2988,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -2825,7 +3039,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -2848,7 +3062,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -2873,7 +3087,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -2893,7 +3107,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -2918,7 +3132,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -2952,7 +3166,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -2975,7 +3189,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
@@ -3012,7 +3226,7 @@
         <v>54</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>6</v>
@@ -3096,7 +3310,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -3110,16 +3324,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -3138,13 +3352,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>5</v>
@@ -3152,13 +3366,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -3169,7 +3383,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -3214,7 +3428,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="20.2"/>
@@ -3229,10 +3443,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3463,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8.5</v>
@@ -3269,7 +3483,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -3289,7 +3503,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -3309,7 +3523,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -3340,7 +3554,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3360,7 +3574,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8.75</v>
@@ -3380,7 +3594,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3400,7 +3614,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.75</v>
@@ -3420,7 +3634,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8.25</v>
@@ -3440,7 +3654,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8.75</v>
@@ -3460,7 +3674,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9.5</v>
@@ -3480,7 +3694,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7.25</v>
@@ -3500,7 +3714,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9.25</v>
@@ -3520,7 +3734,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7.25</v>
@@ -3551,7 +3765,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -3571,7 +3785,7 @@
         <v>66</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8.5</v>
@@ -3591,7 +3805,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8.5</v>
@@ -3602,16 +3816,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3622,16 +3836,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9.25</v>
@@ -3642,16 +3856,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -3675,11 +3889,11 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U6" activeCellId="0" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -3696,55 +3910,55 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="U1" s="0" t="s">
         <v>5</v>
@@ -3753,10 +3967,10 @@
         <v>45877</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,7 +4253,7 @@
         <v>7</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>13</v>
@@ -4476,7 +4690,7 @@
         <v>7</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>13</v>
@@ -4814,7 +5028,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -4871,7 +5085,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -4925,7 +5139,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -5010,7 +5224,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -5022,22 +5236,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,10 +5265,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5074,10 +5288,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -5097,10 +5311,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -5120,10 +5334,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5171,10 +5385,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -5194,10 +5408,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5219,10 +5433,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -5239,10 +5453,10 @@
         <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -5276,10 +5490,10 @@
         <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -5299,10 +5513,10 @@
         <v>49</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -5322,10 +5536,10 @@
         <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5345,10 +5559,10 @@
         <v>55</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -5368,10 +5582,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -5405,10 +5619,10 @@
         <v>64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -5428,10 +5642,10 @@
         <v>67</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -5451,10 +5665,10 @@
         <v>70</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5468,16 +5682,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -5491,16 +5705,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5519,13 +5733,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -5533,13 +5747,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>7</v>
@@ -5550,16 +5764,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5590,7 +5804,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -5603,13 +5817,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,10 +5831,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -5648,7 +5862,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -5660,22 +5874,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5689,10 +5903,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5712,10 +5926,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -5735,10 +5949,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -5758,10 +5972,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5809,10 +6023,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -5832,10 +6046,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5855,10 +6069,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -5892,10 +6106,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5915,10 +6129,10 @@
         <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -5952,10 +6166,10 @@
         <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5975,10 +6189,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -6012,10 +6226,10 @@
         <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -6035,10 +6249,10 @@
         <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6058,10 +6272,10 @@
         <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -6075,16 +6289,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -6098,16 +6312,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -6126,13 +6340,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -6140,13 +6354,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -6154,13 +6368,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -6168,13 +6382,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -6185,16 +6399,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -6225,7 +6439,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -6237,13 +6451,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,10 +6471,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -6277,10 +6491,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -6297,10 +6511,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -6317,10 +6531,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6359,10 +6573,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -6379,10 +6593,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -6399,10 +6613,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -6430,10 +6644,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -6450,10 +6664,10 @@
         <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6470,10 +6684,10 @@
         <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -6490,10 +6704,10 @@
         <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -6510,10 +6724,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -6541,10 +6755,10 @@
         <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -6561,10 +6775,10 @@
         <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -6581,10 +6795,10 @@
         <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -6595,16 +6809,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -6615,16 +6829,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -6635,16 +6849,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -6672,7 +6886,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -6684,22 +6898,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,10 +6938,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -6755,10 +6969,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -6797,10 +7011,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -6817,10 +7031,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -6837,10 +7051,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -6868,10 +7082,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -6888,10 +7102,10 @@
         <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -6919,10 +7133,10 @@
         <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -6939,10 +7153,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -6992,10 +7206,10 @@
         <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -7006,7 +7220,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -7017,16 +7231,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -7034,13 +7248,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -7051,7 +7265,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -7084,7 +7298,7 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7096,22 +7310,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,10 +7333,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -7136,10 +7350,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
@@ -7153,10 +7367,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -7178,10 +7392,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -7192,10 +7406,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -7206,10 +7420,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -7220,10 +7434,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -7234,10 +7448,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>255</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>4</v>
@@ -7248,10 +7462,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -7262,10 +7476,10 @@
         <v>58</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>7</v>
@@ -7279,10 +7493,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -7293,13 +7507,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5</v>
@@ -7330,7 +7544,7 @@
       <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -7561,7 +7775,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
@@ -7572,7 +7786,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -7583,7 +7797,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>

--- a/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
+++ b/inasistencias-5a-tec-Dig/alumnos-5a-td.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="309">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -137,6 +137,9 @@
     <t xml:space="preserve">mateoibruno5@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mirko</t>
   </si>
   <si>
@@ -320,10 +323,34 @@
     <t xml:space="preserve">asistencia</t>
   </si>
   <si>
-    <t xml:space="preserve">7 seg -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 seg-2</t>
+    <t xml:space="preserve">1-salidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-cilcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-funciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-pulsador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-pulsador ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-7 seg -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8- 7 seg-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 carpeta</t>
   </si>
   <si>
     <t xml:space="preserve">Recuperacion Agosto</t>
@@ -1206,13 +1233,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z24" activeCellId="0" sqref="Z24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG3" activeCellId="0" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -1323,6 +1350,24 @@
       <c r="AA2" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="AB2" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1390,6 +1435,15 @@
       <c r="Z3" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1454,6 +1508,15 @@
       <c r="Z4" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1521,6 +1584,15 @@
       <c r="Z5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1588,6 +1660,15 @@
       <c r="Z6" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1664,6 +1745,18 @@
       <c r="Z7" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1731,6 +1824,18 @@
       <c r="AA8" s="3" t="n">
         <v>0.517361111111111</v>
       </c>
+      <c r="AB8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1798,19 +1903,28 @@
       <c r="Z9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>13</v>
@@ -1822,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>13</v>
@@ -1865,19 +1979,28 @@
       <c r="Z10" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>13</v>
@@ -1929,19 +2052,28 @@
       <c r="Z11" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AB11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>13</v>
@@ -1993,19 +2125,28 @@
       <c r="Z12" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>13</v>
@@ -2017,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>13</v>
@@ -2060,19 +2201,31 @@
       <c r="Z13" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE13" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>13</v>
@@ -2124,19 +2277,28 @@
       <c r="Z14" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>13</v>
@@ -2188,19 +2350,28 @@
       <c r="Z15" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>13</v>
@@ -2252,19 +2423,28 @@
       <c r="Z16" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>13</v>
@@ -2316,19 +2496,28 @@
       <c r="Z17" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>13</v>
@@ -2383,19 +2572,34 @@
       <c r="Z18" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AB18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>0.545138888888889</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>13</v>
@@ -2447,19 +2651,28 @@
       <c r="Z19" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>15</v>
@@ -2514,19 +2727,28 @@
       <c r="Z20" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF20" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>13</v>
@@ -2573,10 +2795,19 @@
         <v>15</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,13 +2815,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>13</v>
@@ -2642,19 +2873,28 @@
       <c r="Z22" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>13</v>
@@ -2666,7 +2906,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>13</v>
@@ -2718,19 +2958,28 @@
       <c r="AA23" s="3" t="n">
         <v>0.517361111111111</v>
       </c>
+      <c r="AB23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>13</v>
@@ -2782,6 +3031,18 @@
       <c r="Z24" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AB24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24" s="3" t="n">
+        <v>0.538194444444444</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
@@ -2830,10 +3091,22 @@
         <f aca="false">COUNTIF(Z3:Z24,"P")</f>
         <v>16</v>
       </c>
+      <c r="AB25" s="0" t="n">
+        <f aca="false">COUNTIF(AB3:AB24,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="AD25" s="0" t="n">
+        <f aca="false">COUNTIF(AD3:AD24,"P")</f>
+        <v>16</v>
+      </c>
+      <c r="AF25" s="0" t="n">
+        <f aca="false">COUNTIF(AF3:AF24,"P")</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X26" s="0" t="n">
         <f aca="false">COUNTIF(X3:X24,"M")</f>
@@ -2843,6 +3116,18 @@
         <f aca="false">COUNTIF(Z3:Z24,"M")</f>
         <v>2</v>
       </c>
+      <c r="AB26" s="0" t="n">
+        <f aca="false">COUNTIF(AB3:AB24,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <f aca="false">COUNTIF(AD3:AD24,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <f aca="false">COUNTIF(AF3:AF24,"M")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
@@ -2856,10 +3141,22 @@
         <f aca="false">COUNTIF(Z3:Z24,"T")</f>
         <v>0</v>
       </c>
+      <c r="AB27" s="0" t="n">
+        <f aca="false">COUNTIF(AB3:AB24,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <f aca="false">COUNTIF(AD3:AD24,"T")</f>
+        <v>4</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <f aca="false">COUNTIF(AF3:AF24,"T")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X28" s="0" t="n">
         <f aca="false">SUM(X25:X27)</f>
@@ -2868,6 +3165,18 @@
       <c r="Z28" s="0" t="n">
         <f aca="false">SUM(Z25:Z27)</f>
         <v>18</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <f aca="false">SUM(AB25:AB27)</f>
+        <v>10</v>
+      </c>
+      <c r="AD28" s="0" t="n">
+        <f aca="false">SUM(AD25:AD27)</f>
+        <v>20</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <f aca="false">SUM(AF25:AF27)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2888,11 +3197,11 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.04"/>
@@ -2908,19 +3217,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,7 +3260,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -2988,7 +3297,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -3039,7 +3348,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -3053,16 +3362,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3081,13 +3390,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -3098,16 +3407,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -3126,13 +3435,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -3143,7 +3452,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -3157,16 +3466,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -3180,16 +3489,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
@@ -3203,7 +3512,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -3217,16 +3526,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>6</v>
@@ -3240,7 +3549,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -3254,7 +3563,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -3268,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -3282,7 +3591,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -3296,7 +3605,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -3310,7 +3619,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -3324,16 +3633,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -3352,13 +3661,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>5</v>
@@ -3366,13 +3675,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -3383,7 +3692,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -3424,11 +3733,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="20.2"/>
@@ -3443,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,7 +3772,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8.5</v>
@@ -3483,7 +3792,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -3503,7 +3812,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -3523,7 +3832,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -3554,7 +3863,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3574,7 +3883,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8.75</v>
@@ -3585,16 +3894,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3605,16 +3914,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.75</v>
@@ -3625,16 +3934,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8.25</v>
@@ -3645,16 +3954,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8.75</v>
@@ -3665,16 +3974,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9.5</v>
@@ -3685,16 +3994,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7.25</v>
@@ -3705,16 +4014,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9.25</v>
@@ -3725,16 +4034,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7.25</v>
@@ -3745,7 +4054,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -3756,16 +4065,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -3776,16 +4085,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8.5</v>
@@ -3796,16 +4105,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8.5</v>
@@ -3816,16 +4125,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3836,16 +4145,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9.25</v>
@@ -3856,16 +4165,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -3887,19 +4196,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U6" activeCellId="0" sqref="U6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF23" activeCellId="0" sqref="AF23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="3" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="14" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.39"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="14" style="0" width="9.5"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="21" style="0" width="19.39"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="31" min="22" style="0" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,55 +4222,55 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="U1" s="0" t="s">
         <v>5</v>
@@ -3966,14 +4278,38 @@
       <c r="V1" s="2" t="n">
         <v>45877</v>
       </c>
+      <c r="W1" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="X1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -4026,11 +4362,14 @@
         <f aca="false">ROUND(AVERAGE(S2,Q2,O2,M2),0)</f>
         <v>8</v>
       </c>
-      <c r="X2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -4077,11 +4416,14 @@
         <f aca="false">ROUND(AVERAGE(S3,Q3,O3,M3),0)</f>
         <v>9</v>
       </c>
-      <c r="X3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -4134,11 +4476,14 @@
         <f aca="false">ROUND(AVERAGE(S4,Q4,O4,M4),0)</f>
         <v>9</v>
       </c>
-      <c r="X4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -4185,11 +4530,14 @@
         <f aca="false">ROUND(AVERAGE(S5,Q5,O5,M5),0)</f>
         <v>8</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -4253,16 +4601,19 @@
         <v>7</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -4320,11 +4671,14 @@
         <f aca="false">ROUND(AVERAGE(S7,Q7,O7,M7),0)</f>
         <v>9</v>
       </c>
-      <c r="X7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -4371,16 +4725,19 @@
         <f aca="false">ROUND(AVERAGE(S8,Q8,O8,M8),0)</f>
         <v>9</v>
       </c>
-      <c r="X8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
@@ -4422,16 +4779,19 @@
         <f aca="false">ROUND(AVERAGE(S9,Q9,O9,M9),0)</f>
         <v>10</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
@@ -4473,16 +4833,19 @@
         <f aca="false">ROUND(AVERAGE(S10,Q10,O10,M10),0)</f>
         <v>9</v>
       </c>
-      <c r="X10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -4527,16 +4890,19 @@
       <c r="V11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="X11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -4578,16 +4944,19 @@
         <f aca="false">ROUND(AVERAGE(S12,Q12,O12,M12),0)</f>
         <v>10</v>
       </c>
-      <c r="X12" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>7</v>
@@ -4629,16 +4998,19 @@
         <f aca="false">ROUND(AVERAGE(S13,Q13,O13,M13),0)</f>
         <v>9</v>
       </c>
-      <c r="X13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -4690,21 +5062,24 @@
         <v>7</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="X14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>9</v>
@@ -4746,16 +5121,19 @@
         <f aca="false">ROUND(AVERAGE(S15,Q15,O15,M15),0)</f>
         <v>8</v>
       </c>
-      <c r="X15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -4803,16 +5181,19 @@
         <f aca="false">ROUND(AVERAGE(S16,Q16,O16,M16),0)</f>
         <v>8</v>
       </c>
-      <c r="X16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>7</v>
@@ -4860,16 +5241,19 @@
       <c r="V17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="X17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>10</v>
@@ -4914,16 +5298,19 @@
         <f aca="false">ROUND(AVERAGE(S18,Q18,O18,M18),0)</f>
         <v>7</v>
       </c>
-      <c r="X18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9</v>
@@ -4968,16 +5355,19 @@
       <c r="V19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="X19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>9</v>
@@ -5019,16 +5409,16 @@
         <f aca="false">ROUND(AVERAGE(S20,Q20,O20,M20),0)</f>
         <v>7</v>
       </c>
-      <c r="X20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -5076,16 +5466,19 @@
         <f aca="false">ROUND(AVERAGE(S21,Q21,O21,M21),0)</f>
         <v>9</v>
       </c>
-      <c r="X21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -5130,16 +5523,19 @@
         <f aca="false">ROUND(AVERAGE(S22,Q22,O22,M22),0)</f>
         <v>8</v>
       </c>
-      <c r="X22" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -5181,8 +5577,11 @@
         <f aca="false">ROUND(AVERAGE(S23,Q23,O23,M23),0)</f>
         <v>7</v>
       </c>
-      <c r="X23" s="0" t="n">
-        <v>1</v>
+      <c r="AC23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5220,11 +5619,11 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -5236,22 +5635,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,10 +5664,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5288,10 +5687,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -5311,10 +5710,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -5334,10 +5733,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5385,10 +5784,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -5402,16 +5801,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5430,13 +5829,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -5447,16 +5846,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -5470,7 +5869,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -5484,16 +5883,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -5507,16 +5906,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -5530,16 +5929,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5553,16 +5952,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -5576,16 +5975,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -5599,7 +5998,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -5613,16 +6012,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -5636,16 +6035,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -5659,16 +6058,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5682,16 +6081,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -5705,16 +6104,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5733,13 +6132,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -5747,13 +6146,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>7</v>
@@ -5764,16 +6163,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5800,11 +6199,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -5817,13 +6216,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,10 +6230,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -5858,11 +6257,11 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -5874,22 +6273,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,10 +6302,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5926,10 +6325,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -5949,10 +6348,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -5972,10 +6371,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6023,10 +6422,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -6040,16 +6439,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -6063,16 +6462,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -6086,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -6100,16 +6499,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -6123,16 +6522,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6146,7 +6545,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -6160,16 +6559,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -6183,16 +6582,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -6206,7 +6605,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -6220,16 +6619,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -6243,16 +6642,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6266,16 +6665,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -6289,16 +6688,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -6312,16 +6711,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -6340,13 +6739,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -6354,13 +6753,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -6368,13 +6767,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -6382,13 +6781,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -6399,16 +6798,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -6435,11 +6834,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -6451,13 +6850,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,10 +6870,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -6491,10 +6890,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -6511,10 +6910,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -6531,10 +6930,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6573,10 +6972,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -6587,16 +6986,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -6607,16 +7006,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -6627,7 +7026,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -6638,16 +7037,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -6658,16 +7057,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6678,16 +7077,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -6698,16 +7097,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -6718,16 +7117,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -6738,7 +7137,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -6749,16 +7148,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -6769,16 +7168,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -6789,16 +7188,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -6809,16 +7208,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -6829,16 +7228,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -6849,16 +7248,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -6882,11 +7281,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -6898,22 +7297,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,10 +7337,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -6969,10 +7368,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -7011,10 +7410,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -7025,16 +7424,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -7045,16 +7444,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -7065,7 +7464,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -7076,16 +7475,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -7096,16 +7495,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -7116,7 +7515,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -7127,16 +7526,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -7147,16 +7546,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -7167,7 +7566,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -7178,7 +7577,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -7189,7 +7588,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -7200,16 +7599,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -7220,7 +7619,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -7231,16 +7630,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -7248,13 +7647,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -7265,7 +7664,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -7294,11 +7693,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7310,22 +7709,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,10 +7732,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -7350,10 +7749,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
@@ -7367,10 +7766,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -7392,10 +7791,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -7406,10 +7805,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -7420,10 +7819,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -7434,10 +7833,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -7448,10 +7847,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>4</v>
@@ -7462,10 +7861,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -7473,13 +7872,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>7</v>
@@ -7490,13 +7889,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -7507,13 +7906,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5</v>
@@ -7540,11 +7939,11 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -7643,7 +8042,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
@@ -7654,7 +8053,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -7665,7 +8064,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -7676,7 +8075,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -7687,7 +8086,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -7698,7 +8097,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -7709,7 +8108,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -7720,7 +8119,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -7731,7 +8130,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -7742,7 +8141,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -7753,7 +8152,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -7764,7 +8163,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -7775,7 +8174,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
@@ -7786,7 +8185,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -7797,7 +8196,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
